--- a/doc/Spring timetable.xlsx
+++ b/doc/Spring timetable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viksterikap\Desktop\projekti\tiimi4\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikst\Desktop\Project\tiimi4\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C36D9CA-0D8A-4CF1-94B7-E55E00D6139A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD644E79-AB5F-4A10-8D85-E6AF39134ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D4B23131-6EB9-4DCC-B438-A6636F931968}"/>
+    <workbookView xWindow="17925" yWindow="2955" windowWidth="18180" windowHeight="16890" xr2:uid="{D4B23131-6EB9-4DCC-B438-A6636F931968}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Viksteri</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Aaro</t>
-  </si>
-  <si>
-    <t>Lasse</t>
   </si>
   <si>
     <t>vko1</t>
@@ -160,12 +157,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -184,12 +175,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -197,6 +182,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -220,15 +217,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -244,7 +241,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-teema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -532,7 +529,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -543,7 +540,7 @@
   <dimension ref="A2:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,114 +567,114 @@
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>28</v>
+      <c r="I2" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>11</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>12</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>14</v>
       </c>
-      <c r="M4" t="s">
-        <v>15</v>
-      </c>
       <c r="N4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" t="s">
         <v>23</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>24</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
-      </c>
-      <c r="R4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -692,28 +689,20 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -728,61 +717,62 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
